--- a/Code/Results/Cases/Case_3_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.736438995829985</v>
+        <v>0.8958887032678717</v>
       </c>
       <c r="C2">
-        <v>0.6795748689931713</v>
+        <v>0.2189747176543904</v>
       </c>
       <c r="D2">
-        <v>0.02491663183162274</v>
+        <v>0.01005867474103894</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.634840975999623</v>
+        <v>0.5415983124126313</v>
       </c>
       <c r="G2">
-        <v>0.5458849378738506</v>
+        <v>0.392050031227015</v>
       </c>
       <c r="H2">
-        <v>0.3330230522195734</v>
+        <v>0.5071163709027644</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5742018202586436</v>
+        <v>0.8462759456202136</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.374186294065112</v>
+        <v>0.7881322745201373</v>
       </c>
       <c r="C3">
-        <v>0.5951144907941455</v>
+        <v>0.1926122297886366</v>
       </c>
       <c r="D3">
-        <v>0.02248654375746995</v>
+        <v>0.009208595059675417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5676549253960701</v>
+        <v>0.5304946671969333</v>
       </c>
       <c r="G3">
-        <v>0.4844212484180304</v>
+        <v>0.3813551720773347</v>
       </c>
       <c r="H3">
-        <v>0.3120336977212617</v>
+        <v>0.5073623226635959</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5909472760269097</v>
+        <v>0.8537561001142393</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.152732894312237</v>
+        <v>0.7219650120557617</v>
       </c>
       <c r="C4">
-        <v>0.5433648140617038</v>
+        <v>0.176349297489395</v>
       </c>
       <c r="D4">
-        <v>0.02099544985316015</v>
+        <v>0.008684786428574398</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5280793516032247</v>
+        <v>0.5242024040731579</v>
       </c>
       <c r="G4">
-        <v>0.4483684733382773</v>
+        <v>0.3752425414654113</v>
       </c>
       <c r="H4">
-        <v>0.3001255951964197</v>
+        <v>0.5079074215363022</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6023067963541351</v>
+        <v>0.8587893591180205</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.062681355881864</v>
+        <v>0.6950009142082934</v>
       </c>
       <c r="C5">
-        <v>0.5222929917723036</v>
+        <v>0.1697030218368809</v>
       </c>
       <c r="D5">
-        <v>0.02038787852608692</v>
+        <v>0.008470880999460917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5123380025880806</v>
+        <v>0.5217697533767449</v>
       </c>
       <c r="G5">
-        <v>0.4340632359076295</v>
+        <v>0.3728649808215891</v>
       </c>
       <c r="H5">
-        <v>0.2955019620928852</v>
+        <v>0.5082283899329099</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6071963971600169</v>
+        <v>0.8609512304883609</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.047738547650056</v>
+        <v>0.6905235429206016</v>
       </c>
       <c r="C6">
-        <v>0.5187947296826394</v>
+        <v>0.1685982706208335</v>
       </c>
       <c r="D6">
-        <v>0.02028699039820481</v>
+        <v>0.008435335559454415</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5097464757889512</v>
+        <v>0.5213737374856251</v>
       </c>
       <c r="G6">
-        <v>0.4317101572923292</v>
+        <v>0.3724770138014719</v>
       </c>
       <c r="H6">
-        <v>0.2947475579306058</v>
+        <v>0.508287648381696</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6080237507506396</v>
+        <v>0.86131689932472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.151517714132922</v>
+        <v>0.7216013654925746</v>
       </c>
       <c r="C7">
-        <v>0.5430805787752035</v>
+        <v>0.1762597401782386</v>
       </c>
       <c r="D7">
-        <v>0.02098725591767447</v>
+        <v>0.008681903419859083</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5278655408752329</v>
+        <v>0.5241690648933925</v>
       </c>
       <c r="G7">
-        <v>0.4481740305840844</v>
+        <v>0.3752100188027754</v>
       </c>
       <c r="H7">
-        <v>0.3000623340615789</v>
+        <v>0.5079113503900601</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.602371697849641</v>
+        <v>0.858818066294603</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.611300388212896</v>
+        <v>0.8587355807603672</v>
       </c>
       <c r="C8">
-        <v>0.6504234086924043</v>
+        <v>0.2099008572948549</v>
       </c>
       <c r="D8">
-        <v>0.02407841199611838</v>
+        <v>0.009765962784726412</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6113050235083861</v>
+        <v>0.5376603443206065</v>
       </c>
       <c r="G8">
-        <v>0.524319026737885</v>
+        <v>0.3882677246916302</v>
       </c>
       <c r="H8">
-        <v>0.3255719055166821</v>
+        <v>0.5071192251972718</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5797454425827624</v>
+        <v>0.8487637120507543</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.523194623287225</v>
+        <v>1.127603479416109</v>
       </c>
       <c r="C9">
-        <v>0.8623327269413892</v>
+        <v>0.2752612790830256</v>
       </c>
       <c r="D9">
-        <v>0.03015789640008393</v>
+        <v>0.01187640516798893</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7899646849246125</v>
+        <v>0.5683160143899499</v>
       </c>
       <c r="G9">
-        <v>0.6888338284539799</v>
+        <v>0.4175140647109856</v>
       </c>
       <c r="H9">
-        <v>0.3842050011240303</v>
+        <v>0.5087052291547565</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5444340740055651</v>
+        <v>0.8325407286362179</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.203332536208507</v>
+        <v>1.325106220210671</v>
       </c>
       <c r="C10">
-        <v>1.019719840491291</v>
+        <v>0.3229083116866605</v>
       </c>
       <c r="D10">
-        <v>0.0346513669462567</v>
+        <v>0.01341682562393487</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.932995710783544</v>
+        <v>0.5934439358486827</v>
       </c>
       <c r="G10">
-        <v>0.8217001794601657</v>
+        <v>0.4412750650270283</v>
       </c>
       <c r="H10">
-        <v>0.4337918770082752</v>
+        <v>0.5118027172632083</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5247727100996684</v>
+        <v>0.822750969856969</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.515916753195484</v>
+        <v>1.414948575068991</v>
       </c>
       <c r="C11">
-        <v>1.091895896041876</v>
+        <v>0.344503104032583</v>
       </c>
       <c r="D11">
-        <v>0.03670558608583008</v>
+        <v>0.01411526172640976</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.001256467318441</v>
+        <v>0.6054508907480312</v>
       </c>
       <c r="G11">
-        <v>0.8854187709261794</v>
+        <v>0.4525901635999645</v>
       </c>
       <c r="H11">
-        <v>0.4580723242808631</v>
+        <v>0.5136354665463045</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5173774560936266</v>
+        <v>0.8187597660038435</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.634830030412729</v>
+        <v>1.448968767213444</v>
       </c>
       <c r="C12">
-        <v>1.119329498129588</v>
+        <v>0.3526688668275995</v>
       </c>
       <c r="D12">
-        <v>0.0374853132475792</v>
+        <v>0.01437939428215174</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.027622901375835</v>
+        <v>0.6100811955836605</v>
       </c>
       <c r="G12">
-        <v>0.9100800747573174</v>
+        <v>0.4569485780243951</v>
       </c>
       <c r="H12">
-        <v>0.4675428815340155</v>
+        <v>0.5143907166752371</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5148168260918595</v>
+        <v>0.8173148821372678</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.609194253019211</v>
+        <v>1.441641973963897</v>
       </c>
       <c r="C13">
-        <v>1.113416321899763</v>
+        <v>0.3509107479738134</v>
       </c>
       <c r="D13">
-        <v>0.03731729661321737</v>
+        <v>0.01432252446298321</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.021920416448367</v>
+        <v>0.609080250606155</v>
       </c>
       <c r="G13">
-        <v>0.904744104463802</v>
+        <v>0.4560066270575334</v>
       </c>
       <c r="H13">
-        <v>0.4654904700042692</v>
+        <v>0.5142253321029528</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5153573508660472</v>
+        <v>0.8176231055904495</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.52568838554788</v>
+        <v>1.417747464394608</v>
       </c>
       <c r="C14">
-        <v>1.094150714865663</v>
+        <v>0.3451751422099392</v>
       </c>
       <c r="D14">
-        <v>0.03676969547581166</v>
+        <v>0.01413699918867906</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.00341492501596</v>
+        <v>0.6058301506975994</v>
       </c>
       <c r="G14">
-        <v>0.8874366290021243</v>
+        <v>0.4529472523772995</v>
       </c>
       <c r="H14">
-        <v>0.4588457682132372</v>
+        <v>0.5136963725990853</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5171618826081996</v>
+        <v>0.8186395615957807</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.474612230579339</v>
+        <v>1.403111213554155</v>
       </c>
       <c r="C15">
-        <v>1.082363857924605</v>
+        <v>0.3416603863203136</v>
       </c>
       <c r="D15">
-        <v>0.0364345256993488</v>
+        <v>0.01402331348440811</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9921489950733644</v>
+        <v>0.6038502692407803</v>
       </c>
       <c r="G15">
-        <v>0.8769065560526741</v>
+        <v>0.4510829115286015</v>
       </c>
       <c r="H15">
-        <v>0.4548125347613166</v>
+        <v>0.5133803522756892</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5182989705889582</v>
+        <v>0.8192708314131991</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.18297572416293</v>
+        <v>1.319234691287591</v>
       </c>
       <c r="C16">
-        <v>1.015016191038853</v>
+        <v>0.3214954125701865</v>
       </c>
       <c r="D16">
-        <v>0.03451735420431135</v>
+        <v>0.01337113317502769</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9286038527350371</v>
+        <v>0.592670904902036</v>
       </c>
       <c r="G16">
-        <v>0.8176070682157786</v>
+        <v>0.4405458538833216</v>
       </c>
       <c r="H16">
-        <v>0.4322421263268694</v>
+        <v>0.5116914942474011</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5252885996366743</v>
+        <v>0.823021107924383</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.004941059653788</v>
+        <v>1.267777930756665</v>
       </c>
       <c r="C17">
-        <v>0.9738618304208728</v>
+        <v>0.3091042000672815</v>
       </c>
       <c r="D17">
-        <v>0.03334408098258024</v>
+        <v>0.01297043742088277</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8904790435895649</v>
+        <v>0.5859607759267647</v>
       </c>
       <c r="G17">
-        <v>0.7821099015918946</v>
+        <v>0.4342119433719631</v>
       </c>
       <c r="H17">
-        <v>0.4188565745158854</v>
+        <v>0.5107641654818167</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5299848901066895</v>
+        <v>0.8254401852060838</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.902834491126555</v>
+        <v>1.238181161443663</v>
       </c>
       <c r="C18">
-        <v>0.9502442842933476</v>
+        <v>0.3019695765924553</v>
       </c>
       <c r="D18">
-        <v>0.03267017173855891</v>
+        <v>0.012739751559252</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8688476351360208</v>
+        <v>0.5821554750858411</v>
       </c>
       <c r="G18">
-        <v>0.7619973366746251</v>
+        <v>0.4306164309636102</v>
       </c>
       <c r="H18">
-        <v>0.4113179074988125</v>
+        <v>0.5102706517359934</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.532830746425816</v>
+        <v>0.8268750771071254</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.868311003545728</v>
+        <v>1.228160193121766</v>
       </c>
       <c r="C19">
-        <v>0.9422564124825499</v>
+        <v>0.2995526292565671</v>
       </c>
       <c r="D19">
-        <v>0.03244214585095762</v>
+        <v>0.01266160870079602</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8615729319445791</v>
+        <v>0.5808763516011481</v>
       </c>
       <c r="G19">
-        <v>0.7552380848647573</v>
+        <v>0.429407199017902</v>
       </c>
       <c r="H19">
-        <v>0.4087921639586085</v>
+        <v>0.5101103934805167</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5338186557209141</v>
+        <v>0.8273683775521974</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.023862099557618</v>
+        <v>1.273255617296343</v>
       </c>
       <c r="C20">
-        <v>0.9782371308623112</v>
+        <v>0.3104240461433676</v>
       </c>
       <c r="D20">
-        <v>0.03346887940456611</v>
+        <v>0.01301311468133548</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8945063548652428</v>
+        <v>0.58666946741792</v>
       </c>
       <c r="G20">
-        <v>0.7858566987478071</v>
+        <v>0.4348812678532141</v>
       </c>
       <c r="H20">
-        <v>0.4202646971829296</v>
+        <v>0.5108587535352882</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5294698696883771</v>
+        <v>0.8251781677132612</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.550200579102921</v>
+        <v>1.424765898664646</v>
       </c>
       <c r="C21">
-        <v>1.099806561199699</v>
+        <v>0.3468601482265115</v>
       </c>
       <c r="D21">
-        <v>0.03693048598668724</v>
+        <v>0.01419150210082876</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.008835900150345</v>
+        <v>0.6067825113487402</v>
       </c>
       <c r="G21">
-        <v>0.8925052870966965</v>
+        <v>0.4538438597049179</v>
       </c>
       <c r="H21">
-        <v>0.4607897468780209</v>
+        <v>0.513850076710952</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.516625196507583</v>
+        <v>0.8183391987799453</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.897412638765786</v>
+        <v>1.523779520737151</v>
       </c>
       <c r="C22">
-        <v>1.179864402471878</v>
+        <v>0.3706048632056422</v>
       </c>
       <c r="D22">
-        <v>0.03920378000197644</v>
+        <v>0.01495959791590451</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.086604578341564</v>
+        <v>0.6204147520569734</v>
       </c>
       <c r="G22">
-        <v>0.9653425075082964</v>
+        <v>0.4666665916373063</v>
       </c>
       <c r="H22">
-        <v>0.4888994963068569</v>
+        <v>0.5161621024807914</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5096371758535412</v>
+        <v>0.8142571610082356</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.711773744629511</v>
+        <v>1.470934993021956</v>
       </c>
       <c r="C23">
-        <v>1.137073960380405</v>
+        <v>0.3579381849517915</v>
       </c>
       <c r="D23">
-        <v>0.03798933954848849</v>
+        <v>0.01454984405425819</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.044798480077233</v>
+        <v>0.6130941633912244</v>
       </c>
       <c r="G23">
-        <v>0.9261591992474081</v>
+        <v>0.4597832687028642</v>
       </c>
       <c r="H23">
-        <v>0.4737381186942429</v>
+        <v>0.5148953630719149</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5132320612219061</v>
+        <v>0.8164003410169443</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.01530713158445</v>
+        <v>1.270779197495813</v>
       </c>
       <c r="C24">
-        <v>0.9762589260967047</v>
+        <v>0.3098273772090181</v>
       </c>
       <c r="D24">
-        <v>0.03341245613184185</v>
+        <v>0.01299382128872395</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8926847176608277</v>
+        <v>0.586348904693196</v>
       </c>
       <c r="G24">
-        <v>0.7841618567399991</v>
+        <v>0.4345785232297175</v>
       </c>
       <c r="H24">
-        <v>0.419627598432541</v>
+        <v>0.510815866880904</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.529702257258279</v>
+        <v>0.8252964883492524</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.275020351513604</v>
+        <v>1.054873467308596</v>
       </c>
       <c r="C25">
-        <v>0.8047727081736866</v>
+        <v>0.25764499605026</v>
       </c>
       <c r="D25">
-        <v>0.02850979561327449</v>
+        <v>0.01130719971978777</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7397667516597863</v>
+        <v>0.5595686096682755</v>
       </c>
       <c r="G25">
-        <v>0.64243268758797</v>
+        <v>0.4092068087597056</v>
       </c>
       <c r="H25">
-        <v>0.3672976015048306</v>
+        <v>0.5079381837395118</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5529422358483487</v>
+        <v>0.8365555421716451</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8958887032678717</v>
+        <v>2.736438995829872</v>
       </c>
       <c r="C2">
-        <v>0.2189747176543904</v>
+        <v>0.6795748689928587</v>
       </c>
       <c r="D2">
-        <v>0.01005867474103894</v>
+        <v>0.02491663183139181</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5415983124126313</v>
+        <v>0.6348409759996372</v>
       </c>
       <c r="G2">
-        <v>0.392050031227015</v>
+        <v>0.5458849378738506</v>
       </c>
       <c r="H2">
-        <v>0.5071163709027644</v>
+        <v>0.3330230522194597</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8462759456202136</v>
+        <v>0.5742018202586365</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7881322745201373</v>
+        <v>2.374186294065225</v>
       </c>
       <c r="C3">
-        <v>0.1926122297886366</v>
+        <v>0.5951144907942876</v>
       </c>
       <c r="D3">
-        <v>0.009208595059675417</v>
+        <v>0.02248654375758719</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5304946671969333</v>
+        <v>0.5676549253960701</v>
       </c>
       <c r="G3">
-        <v>0.3813551720773347</v>
+        <v>0.4844212484181014</v>
       </c>
       <c r="H3">
-        <v>0.5073623226635959</v>
+        <v>0.3120336977212474</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8537561001142393</v>
+        <v>0.5909472760268457</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7219650120557617</v>
+        <v>2.152732894312294</v>
       </c>
       <c r="C4">
-        <v>0.176349297489395</v>
+        <v>0.5433648140619596</v>
       </c>
       <c r="D4">
-        <v>0.008684786428574398</v>
+        <v>0.02099544985333779</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5242024040731579</v>
+        <v>0.5280793516032247</v>
       </c>
       <c r="G4">
-        <v>0.3752425414654113</v>
+        <v>0.4483684733381921</v>
       </c>
       <c r="H4">
-        <v>0.5079074215363022</v>
+        <v>0.3001255951964339</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8587893591180205</v>
+        <v>0.6023067963541351</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6950009142082934</v>
+        <v>2.062681355881836</v>
       </c>
       <c r="C5">
-        <v>0.1697030218368809</v>
+        <v>0.5222929917727868</v>
       </c>
       <c r="D5">
-        <v>0.008470880999460917</v>
+        <v>0.02038787852632495</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5217697533767449</v>
+        <v>0.5123380025880735</v>
       </c>
       <c r="G5">
-        <v>0.3728649808215891</v>
+        <v>0.4340632359076437</v>
       </c>
       <c r="H5">
-        <v>0.5082283899329099</v>
+        <v>0.2955019620929988</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8609512304883609</v>
+        <v>0.6071963971600098</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6905235429206016</v>
+        <v>2.047738547650113</v>
       </c>
       <c r="C6">
-        <v>0.1685982706208335</v>
+        <v>0.518794729682611</v>
       </c>
       <c r="D6">
-        <v>0.008435335559454415</v>
+        <v>0.02028699039843929</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5213737374856251</v>
+        <v>0.5097464757889441</v>
       </c>
       <c r="G6">
-        <v>0.3724770138014719</v>
+        <v>0.4317101572922724</v>
       </c>
       <c r="H6">
-        <v>0.508287648381696</v>
+        <v>0.2947475579306058</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.86131689932472</v>
+        <v>0.6080237507507107</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7216013654925746</v>
+        <v>2.151517714133092</v>
       </c>
       <c r="C7">
-        <v>0.1762597401782386</v>
+        <v>0.5430805787753172</v>
       </c>
       <c r="D7">
-        <v>0.008681903419859083</v>
+        <v>0.02098725591767803</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5241690648933925</v>
+        <v>0.52786554087524</v>
       </c>
       <c r="G7">
-        <v>0.3752100188027754</v>
+        <v>0.4481740305840844</v>
       </c>
       <c r="H7">
-        <v>0.5079113503900601</v>
+        <v>0.3000623340615931</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.858818066294603</v>
+        <v>0.6023716978496267</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8587355807603672</v>
+        <v>2.611300388212783</v>
       </c>
       <c r="C8">
-        <v>0.2099008572948549</v>
+        <v>0.6504234086921485</v>
       </c>
       <c r="D8">
-        <v>0.009765962784726412</v>
+        <v>0.024078411995891</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5376603443206065</v>
+        <v>0.6113050235084074</v>
       </c>
       <c r="G8">
-        <v>0.3882677246916302</v>
+        <v>0.524319026737885</v>
       </c>
       <c r="H8">
-        <v>0.5071192251972718</v>
+        <v>0.3255719055166679</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8487637120507543</v>
+        <v>0.5797454425827553</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.127603479416109</v>
+        <v>3.523194623287111</v>
       </c>
       <c r="C9">
-        <v>0.2752612790830256</v>
+        <v>0.8623327269410765</v>
       </c>
       <c r="D9">
-        <v>0.01187640516798893</v>
+        <v>0.03015789639998445</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5683160143899499</v>
+        <v>0.7899646849245983</v>
       </c>
       <c r="G9">
-        <v>0.4175140647109856</v>
+        <v>0.6888338284539799</v>
       </c>
       <c r="H9">
-        <v>0.5087052291547565</v>
+        <v>0.3842050011241582</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8325407286362179</v>
+        <v>0.544434074005629</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.325106220210671</v>
+        <v>4.203332536208393</v>
       </c>
       <c r="C10">
-        <v>0.3229083116866605</v>
+        <v>1.019719840491291</v>
       </c>
       <c r="D10">
-        <v>0.01341682562393487</v>
+        <v>0.0346513669462567</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5934439358486827</v>
+        <v>0.9329957107835298</v>
       </c>
       <c r="G10">
-        <v>0.4412750650270283</v>
+        <v>0.8217001794601515</v>
       </c>
       <c r="H10">
-        <v>0.5118027172632083</v>
+        <v>0.4337918770082752</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.822750969856969</v>
+        <v>0.5247727100996684</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.414948575068991</v>
+        <v>4.515916753195654</v>
       </c>
       <c r="C11">
-        <v>0.344503104032583</v>
+        <v>1.091895896042217</v>
       </c>
       <c r="D11">
-        <v>0.01411526172640976</v>
+        <v>0.03670558608565955</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6054508907480312</v>
+        <v>1.001256467318441</v>
       </c>
       <c r="G11">
-        <v>0.4525901635999645</v>
+        <v>0.885418770926151</v>
       </c>
       <c r="H11">
-        <v>0.5136354665463045</v>
+        <v>0.4580723242808631</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8187597660038435</v>
+        <v>0.5173774560935485</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.448968767213444</v>
+        <v>4.634830030412672</v>
       </c>
       <c r="C12">
-        <v>0.3526688668275995</v>
+        <v>1.119329498129474</v>
       </c>
       <c r="D12">
-        <v>0.01437939428215174</v>
+        <v>0.0374853132475792</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6100811955836605</v>
+        <v>1.027622901375821</v>
       </c>
       <c r="G12">
-        <v>0.4569485780243951</v>
+        <v>0.9100800747572748</v>
       </c>
       <c r="H12">
-        <v>0.5143907166752371</v>
+        <v>0.4675428815340155</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8173148821372678</v>
+        <v>0.5148168260919164</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.441641973963897</v>
+        <v>4.609194253019155</v>
       </c>
       <c r="C13">
-        <v>0.3509107479738134</v>
+        <v>1.113416321899706</v>
       </c>
       <c r="D13">
-        <v>0.01432252446298321</v>
+        <v>0.03731729661322447</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.609080250606155</v>
+        <v>1.021920416448367</v>
       </c>
       <c r="G13">
-        <v>0.4560066270575334</v>
+        <v>0.9047441044637736</v>
       </c>
       <c r="H13">
-        <v>0.5142253321029528</v>
+        <v>0.4654904700041413</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8176231055904495</v>
+        <v>0.515357350866104</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.417747464394608</v>
+        <v>4.52568838554788</v>
       </c>
       <c r="C14">
-        <v>0.3451751422099392</v>
+        <v>1.094150714865776</v>
       </c>
       <c r="D14">
-        <v>0.01413699918867906</v>
+        <v>0.03676969547581876</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6058301506975994</v>
+        <v>1.003414925015946</v>
       </c>
       <c r="G14">
-        <v>0.4529472523772995</v>
+        <v>0.8874366290021385</v>
       </c>
       <c r="H14">
-        <v>0.5136963725990853</v>
+        <v>0.4588457682132514</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8186395615957807</v>
+        <v>0.5171618826081996</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.403111213554155</v>
+        <v>4.474612230579055</v>
       </c>
       <c r="C15">
-        <v>0.3416603863203136</v>
+        <v>1.082363857924605</v>
       </c>
       <c r="D15">
-        <v>0.01402331348440811</v>
+        <v>0.03643452569924932</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6038502692407803</v>
+        <v>0.9921489950733644</v>
       </c>
       <c r="G15">
-        <v>0.4510829115286015</v>
+        <v>0.8769065560526883</v>
       </c>
       <c r="H15">
-        <v>0.5133803522756892</v>
+        <v>0.454812534761345</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8192708314131991</v>
+        <v>0.5182989705889725</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.319234691287591</v>
+        <v>4.182975724162986</v>
       </c>
       <c r="C16">
-        <v>0.3214954125701865</v>
+        <v>1.015016191039194</v>
       </c>
       <c r="D16">
-        <v>0.01337113317502769</v>
+        <v>0.03451735420437529</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.592670904902036</v>
+        <v>0.9286038527350371</v>
       </c>
       <c r="G16">
-        <v>0.4405458538833216</v>
+        <v>0.817607068215807</v>
       </c>
       <c r="H16">
-        <v>0.5116914942474011</v>
+        <v>0.4322421263269831</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.823021107924383</v>
+        <v>0.5252885996366174</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.267777930756665</v>
+        <v>4.004941059653902</v>
       </c>
       <c r="C17">
-        <v>0.3091042000672815</v>
+        <v>0.9738618304209012</v>
       </c>
       <c r="D17">
-        <v>0.01297043742088277</v>
+        <v>0.0333440809825305</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5859607759267647</v>
+        <v>0.8904790435895364</v>
       </c>
       <c r="G17">
-        <v>0.4342119433719631</v>
+        <v>0.7821099015918378</v>
       </c>
       <c r="H17">
-        <v>0.5107641654818167</v>
+        <v>0.4188565745157717</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8254401852060838</v>
+        <v>0.5299848901066824</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.238181161443663</v>
+        <v>3.902834491126555</v>
       </c>
       <c r="C18">
-        <v>0.3019695765924553</v>
+        <v>0.9502442842934045</v>
       </c>
       <c r="D18">
-        <v>0.012739751559252</v>
+        <v>0.03267017173844522</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5821554750858411</v>
+        <v>0.8688476351360492</v>
       </c>
       <c r="G18">
-        <v>0.4306164309636102</v>
+        <v>0.7619973366746677</v>
       </c>
       <c r="H18">
-        <v>0.5102706517359934</v>
+        <v>0.4113179074989262</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8268750771071254</v>
+        <v>0.5328307464257662</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.228160193121766</v>
+        <v>3.868311003545557</v>
       </c>
       <c r="C19">
-        <v>0.2995526292565671</v>
+        <v>0.9422564124825783</v>
       </c>
       <c r="D19">
-        <v>0.01266160870079602</v>
+        <v>0.03244214585089367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5808763516011481</v>
+        <v>0.8615729319445791</v>
       </c>
       <c r="G19">
-        <v>0.429407199017902</v>
+        <v>0.7552380848647573</v>
       </c>
       <c r="H19">
-        <v>0.5101103934805167</v>
+        <v>0.4087921639584948</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8273683775521974</v>
+        <v>0.5338186557208715</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.273255617296343</v>
+        <v>4.023862099557675</v>
       </c>
       <c r="C20">
-        <v>0.3104240461433676</v>
+        <v>0.9782371308621123</v>
       </c>
       <c r="D20">
-        <v>0.01301311468133548</v>
+        <v>0.03346887940457322</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.58666946741792</v>
+        <v>0.894506354865257</v>
       </c>
       <c r="G20">
-        <v>0.4348812678532141</v>
+        <v>0.7858566987477786</v>
       </c>
       <c r="H20">
-        <v>0.5108587535352882</v>
+        <v>0.4202646971829296</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8251781677132612</v>
+        <v>0.5294698696883486</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.424765898664646</v>
+        <v>4.550200579103148</v>
       </c>
       <c r="C21">
-        <v>0.3468601482265115</v>
+        <v>1.09980656120004</v>
       </c>
       <c r="D21">
-        <v>0.01419150210082876</v>
+        <v>0.03693048598647408</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6067825113487402</v>
+        <v>1.008835900150345</v>
       </c>
       <c r="G21">
-        <v>0.4538438597049179</v>
+        <v>0.8925052870967107</v>
       </c>
       <c r="H21">
-        <v>0.513850076710952</v>
+        <v>0.4607897468780351</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8183391987799453</v>
+        <v>0.5166251965075901</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.523779520737151</v>
+        <v>4.897412638765957</v>
       </c>
       <c r="C22">
-        <v>0.3706048632056422</v>
+        <v>1.179864402472504</v>
       </c>
       <c r="D22">
-        <v>0.01495959791590451</v>
+        <v>0.03920378000197644</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6204147520569734</v>
+        <v>1.086604578341564</v>
       </c>
       <c r="G22">
-        <v>0.4666665916373063</v>
+        <v>0.9653425075083106</v>
       </c>
       <c r="H22">
-        <v>0.5161621024807914</v>
+        <v>0.4888994963068569</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8142571610082356</v>
+        <v>0.5096371758535341</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.470934993021956</v>
+        <v>4.711773744629511</v>
       </c>
       <c r="C23">
-        <v>0.3579381849517915</v>
+        <v>1.137073960380292</v>
       </c>
       <c r="D23">
-        <v>0.01454984405425819</v>
+        <v>0.03798933954848849</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6130941633912244</v>
+        <v>1.044798480077247</v>
       </c>
       <c r="G23">
-        <v>0.4597832687028642</v>
+        <v>0.9261591992474081</v>
       </c>
       <c r="H23">
-        <v>0.5148953630719149</v>
+        <v>0.4737381186942429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8164003410169443</v>
+        <v>0.5132320612219061</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.270779197495813</v>
+        <v>4.015307131584393</v>
       </c>
       <c r="C24">
-        <v>0.3098273772090181</v>
+        <v>0.976258926096591</v>
       </c>
       <c r="D24">
-        <v>0.01299382128872395</v>
+        <v>0.03341245613159316</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.586348904693196</v>
+        <v>0.8926847176608561</v>
       </c>
       <c r="G24">
-        <v>0.4345785232297175</v>
+        <v>0.7841618567399564</v>
       </c>
       <c r="H24">
-        <v>0.510815866880904</v>
+        <v>0.419627598432541</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8252964883492524</v>
+        <v>0.529702257258279</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.054873467308596</v>
+        <v>3.275020351513433</v>
       </c>
       <c r="C25">
-        <v>0.25764499605026</v>
+        <v>0.8047727081736866</v>
       </c>
       <c r="D25">
-        <v>0.01130719971978777</v>
+        <v>0.02850979561350186</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5595686096682755</v>
+        <v>0.7397667516597721</v>
       </c>
       <c r="G25">
-        <v>0.4092068087597056</v>
+        <v>0.6424326875879558</v>
       </c>
       <c r="H25">
-        <v>0.5079381837395118</v>
+        <v>0.3672976015048306</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8365555421716451</v>
+        <v>0.5529422358483487</v>
       </c>
       <c r="O25">
         <v>0</v>
